--- a/documents/5.详细设计说明书/详细设计说明书版本控制模板.xlsx
+++ b/documents/5.详细设计说明书/详细设计说明书版本控制模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="1720" windowWidth="37540" windowHeight="21140"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="24740" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>***文档版本控制</t>
   </si>
@@ -94,6 +94,135 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>dai'ding</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书1.0</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'ming'shu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍家豪</t>
+    <rPh sb="0" eb="1">
+      <t>w'j'h</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成所有代码组需要的详细设计说明</t>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'yao'de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiagn'xi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书2.0</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'ming'shu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、更新系统功能图2.0     2、更新需求变更（增加市用户）的相关内容     3、更新附件《数据库设计3.0》     4、更新附件《接口设计2.0》</t>
+    <rPh sb="2" eb="3">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'neng'tu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bian'geng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shi'yong'hu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>fu'jian</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>fu'jian</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>she'ji</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -186,7 +315,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -218,6 +347,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1415,7 +1547,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1480,18 +1612,38 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11">
+        <v>40985</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11">
+        <v>40995</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
